--- a/wfsts.xlsx
+++ b/wfsts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,10 +505,10 @@
         <v>21</v>
       </c>
       <c r="H2" t="n">
-        <v>1.955203851064046</v>
+        <v>1.891649802525838</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007895628611246744</v>
+        <v>0.001314640045166016</v>
       </c>
       <c r="J2" t="n">
         <v>65598</v>
@@ -539,10 +539,10 @@
         <v>21</v>
       </c>
       <c r="H3" t="n">
-        <v>2.115126530329386</v>
+        <v>2.146528402964274</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0006726582845052084</v>
+        <v>0.001156250635782878</v>
       </c>
       <c r="J3" t="n">
         <v>71286</v>
@@ -573,10 +573,10 @@
         <v>21</v>
       </c>
       <c r="H4" t="n">
-        <v>1.926647265752157</v>
+        <v>1.944070021311442</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005992253621419271</v>
+        <v>0.0007329781850179037</v>
       </c>
       <c r="J4" t="n">
         <v>65598</v>
@@ -588,11 +588,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>None weight multi word</t>
+          <t>5 5 original</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -601,18 +601,52 @@
         <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>38.09523809523809</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="G5" t="n">
         <v>21</v>
       </c>
       <c r="H5" t="n">
-        <v>2.091107368469238</v>
+        <v>1.906033674875895</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0008347829182942709</v>
+        <v>0.0006307760874430338</v>
       </c>
       <c r="J5" t="n">
+        <v>65598</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>None weight multi word</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>38.09523809523809</v>
+      </c>
+      <c r="G6" t="n">
+        <v>21</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2.067974805831909</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.0007714430491129557</v>
+      </c>
+      <c r="J6" t="n">
         <v>71286</v>
       </c>
     </row>
